--- a/public/doc/Plantilla_BaseDatos.xlsx
+++ b/public/doc/Plantilla_BaseDatos.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS01\Documents\crearformato\public\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C96A229-49A7-4E65-B394-8FEA93816C65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>nombre</t>
   </si>
@@ -44,91 +53,92 @@
   </si>
   <si>
     <t>folio</t>
+  </si>
+  <si>
+    <t>credencial</t>
+  </si>
+  <si>
+    <t>certificado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -318,29 +328,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.38"/>
-    <col customWidth="1" min="2" max="2" width="21.88"/>
-    <col customWidth="1" min="3" max="3" width="23.5"/>
-    <col customWidth="1" min="4" max="4" width="23.0"/>
-    <col customWidth="1" min="5" max="5" width="13.63"/>
-    <col customWidth="1" min="6" max="6" width="51.5"/>
-    <col customWidth="1" min="10" max="10" width="23.75"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="51.44140625" customWidth="1"/>
+    <col min="10" max="10" width="23.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -368,40 +383,50 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
+      <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="4"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="4"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/doc/Plantilla_BaseDatos.xlsx
+++ b/public/doc/Plantilla_BaseDatos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS01\Documents\crearformato\public\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C96A229-49A7-4E65-B394-8FEA93816C65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5043AA6-B3FD-4FC5-B043-209EB9FCAB53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -91,6 +91,17 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -112,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -120,6 +131,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -135,6 +147,153 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L2" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="M2" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>845820</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>137160</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>548640</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Check Box 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>137160</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>571500</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Check Box 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -334,14 +493,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -355,7 +514,7 @@
     <col min="10" max="10" width="23.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -383,7 +542,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -396,7 +555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -408,8 +567,14 @@
       <c r="I2" s="4"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -428,5 +593,58 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1025" r:id="rId4" name="Check Box 1">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>845820</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>137160</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>548640</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>15240</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1026" r:id="rId5" name="Check Box 2">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>137160</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>571500</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>15240</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
--- a/public/doc/Plantilla_BaseDatos.xlsx
+++ b/public/doc/Plantilla_BaseDatos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS01\Documents\crearformato\public\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5043AA6-B3FD-4FC5-B043-209EB9FCAB53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049CBDC2-4C5B-498D-B2E8-16BBDA3CC51C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>nombre</t>
   </si>
@@ -31,15 +31,6 @@
     <t>puesto</t>
   </si>
   <si>
-    <t>razon_social</t>
-  </si>
-  <si>
-    <t>rfc</t>
-  </si>
-  <si>
-    <t>curso</t>
-  </si>
-  <si>
     <t>duracion</t>
   </si>
   <si>
@@ -52,13 +43,10 @@
     <t>area</t>
   </si>
   <si>
-    <t>folio</t>
+    <t>constancia</t>
   </si>
   <si>
     <t>credencial</t>
-  </si>
-  <si>
-    <t>certificado</t>
   </si>
 </sst>
 </file>
@@ -66,9 +54,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="164" formatCode="[$-80A]General"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -82,25 +70,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,21 +104,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{7B4BDF6D-BE7A-4BA6-9221-F5223E6475E4}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{370A5281-A3D9-4BD2-8BA3-1F4012CCC15F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -147,153 +131,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L2" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="M2" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>845820</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>137160</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>548640</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Check Box 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>137160</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>571500</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1026" name="Check Box 2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1026"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -493,28 +330,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.33203125" customWidth="1"/>
     <col min="2" max="2" width="21.88671875" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="51.44140625" customWidth="1"/>
-    <col min="10" max="10" width="23.77734375" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="3"/>
+    <col min="7" max="7" width="32.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,7 +362,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -542,109 +377,42 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="2"/>
-      <c r="J4" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="date" operator="greaterThan" showInputMessage="1" showErrorMessage="1" error="Se debe de insertar una fecha en formato DD/MM/YYYY" sqref="E1:E1048576" xr:uid="{743DA529-105E-44F2-8865-613B314FC75F}">
+      <formula1>36526</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{EC09147D-FEB2-417E-B7A3-1CBEA9D6BA3B}">
+      <formula1>36526</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1025" r:id="rId4" name="Check Box 1">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>845820</xdr:colOff>
-                    <xdr:row>0</xdr:row>
-                    <xdr:rowOff>137160</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>11</xdr:col>
-                    <xdr:colOff>548640</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>15240</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId5" name="Check Box 2">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>12</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>0</xdr:row>
-                    <xdr:rowOff>137160</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>12</xdr:col>
-                    <xdr:colOff>571500</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>15240</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-  </mc:AlternateContent>
 </worksheet>
 </file>
--- a/public/doc/Plantilla_BaseDatos.xlsx
+++ b/public/doc/Plantilla_BaseDatos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS01\Documents\crearformato\public\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049CBDC2-4C5B-498D-B2E8-16BBDA3CC51C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2E38BC-9BE6-479F-A90D-A367E485FF9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>nombre</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>fecha_termino</t>
-  </si>
-  <si>
-    <t>area</t>
   </si>
   <si>
     <t>constancia</t>
@@ -334,10 +331,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -346,10 +343,9 @@
     <col min="2" max="2" width="21.88671875" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="3"/>
-    <col min="7" max="7" width="32.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -374,33 +370,21 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/public/doc/Plantilla_BaseDatos.xlsx
+++ b/public/doc/Plantilla_BaseDatos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS01\Documents\crearformato\public\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS01\Documents\crearFormato\client\public\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2E38BC-9BE6-479F-A90D-A367E485FF9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0644FF21-B634-4E76-A4B4-979CAA621DF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>nombre</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>credencial</t>
+  </si>
+  <si>
+    <t>imagen</t>
   </si>
 </sst>
 </file>
@@ -331,10 +334,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -345,7 +348,7 @@
     <col min="5" max="5" width="12.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -370,20 +373,23 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6"/>
     </row>
   </sheetData>
